--- a/University/5.2.Students.xlsx
+++ b/University/5.2.Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\profi\Documents\GitHub\SQL-BOOK\University\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fishman_1\Documents\GitHub\SQL-BOOK\University\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D1711-B8D5-4A2C-8074-C88DC201EB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C46227-318A-4D65-B1A6-042B740646B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="2895" windowWidth="21600" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="2625" windowWidth="15540" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>FirstName</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>egor_the_best@ya.ru</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -541,423 +544,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>35477</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1500</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>34955</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>2500</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>34904</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>34044</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>2500</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>35960</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>1500</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>34400</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>35461</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>2500</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>35371</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>34731</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>1500</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>33323</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>33603</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>35620</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>1500</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>34862</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>34413</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>1500</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>35316</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>2500</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>33799</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>33655</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>1500</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>36119</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>35487</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>2500</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>34625</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>1500</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>4</v>
       </c>
     </row>
